--- a/biology/Médecine/1328_en_santé_et_médecine/1328_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1328_en_santé_et_médecine/1328_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1328_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1328_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1328 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1328_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1328_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation à Montpellier, par Pierre Causit, bourgeois de la ville, de l'hôpital de la Madeleine, qui « est réservé aux femmes et accueille les repenties[1],[2] ».
-Construction à Haguenau, en Alsace, de l'hôpital Saint-Martin à l'emplacement du premier hôpital de la ville, fondé et consacré à la Vierge et à saint Nicolas par Frédéric Barberousse en 1189[3].
-Un hospice est fondé à Louvain, dans le Brabant, par des alexiens, laïcs « voués à la garde et au service des malades en ville, et qui ont formé un établissement pour garder et soigner des frénétiques[4] ».
-Une ordonnance du roi Édouard III remet au collège d'Oriel d'Oxford la léproserie Saint-Barthélemy (St. Bartholomew's leper hospital) de Cowley, avec les redevances qui lui sont attachées[5].
-1327-1328 : Jean de Padua (fl. 1301-1328), chirurgien de Philippe le Bel, soigne au château de Conflans le fou de Mahaut, comtesse d'Artois[6].
-Il ne se trouve qu'un seul pharmacien à Reims[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation à Montpellier, par Pierre Causit, bourgeois de la ville, de l'hôpital de la Madeleine, qui « est réservé aux femmes et accueille les repenties, ».
+Construction à Haguenau, en Alsace, de l'hôpital Saint-Martin à l'emplacement du premier hôpital de la ville, fondé et consacré à la Vierge et à saint Nicolas par Frédéric Barberousse en 1189.
+Un hospice est fondé à Louvain, dans le Brabant, par des alexiens, laïcs « voués à la garde et au service des malades en ville, et qui ont formé un établissement pour garder et soigner des frénétiques ».
+Une ordonnance du roi Édouard III remet au collège d'Oriel d'Oxford la léproserie Saint-Barthélemy (St. Bartholomew's leper hospital) de Cowley, avec les redevances qui lui sont attachées.
+1327-1328 : Jean de Padua (fl. 1301-1328), chirurgien de Philippe le Bel, soigne au château de Conflans le fou de Mahaut, comtesse d'Artois.
+Il ne se trouve qu'un seul pharmacien à Reims.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1328_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1328_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Après le 18 avril : Kalonymus ben Kalonymus (né en 1286), rabbin provençal, traducteur de l'arabe en hébreu de nombreux ouvrages scientifiques, philosophiques et médicaux, n'ayant, semble-t-il, jamais pratiqué la médecine, qu'il avait cependant étudiée[8],[9].
-Après septembre probablement, et en 1327 au plus tôt[10] : Jean Pitard (né vers 1248[10]), chirurgien des rois de France Philippe le Hardi et Philippe le Bel.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Après le 18 avril : Kalonymus ben Kalonymus (né en 1286), rabbin provençal, traducteur de l'arabe en hébreu de nombreux ouvrages scientifiques, philosophiques et médicaux, n'ayant, semble-t-il, jamais pratiqué la médecine, qu'il avait cependant étudiée,.
+Après septembre probablement, et en 1327 au plus tôt : Jean Pitard (né vers 1248), chirurgien des rois de France Philippe le Hardi et Philippe le Bel.</t>
         </is>
       </c>
     </row>
